--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1537452F-4F36-7949-A641-E4107DD8E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381BDADC-60F0-F940-BCC1-D32814AC7505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="460" windowWidth="28040" windowHeight="17360" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
+    <workbookView xWindow="20820" yWindow="460" windowWidth="15500" windowHeight="17360" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="22" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>iframe coloca uma janela com o site dentro dele.</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -43,7 +46,29 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Corpo)"/>
       </rPr>
-      <t>Aula 00:</t>
+      <t>Aula 02:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Configurando iframes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 01:</t>
     </r>
     <r>
       <rPr>
@@ -130,6 +155,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC744E7-AD46-B445-8D26-CC2888AD3804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="381000"/>
+          <a:ext cx="3644900" cy="3225382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81AF066-A698-F946-AB14-913A8E402D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867200" y="635000"/>
+          <a:ext cx="3498800" cy="2193873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,24 +547,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381BDADC-60F0-F940-BCC1-D32814AC7505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7501A75E-112F-9A4C-9FEA-E55A5E22F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20820" yWindow="460" windowWidth="15500" windowHeight="17360" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
+    <workbookView xWindow="14980" yWindow="460" windowWidth="19040" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -80,6 +80,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> O iframe ainda pode ser usado?</t>
+    </r>
+  </si>
+  <si>
+    <t>Configurar altura, largura e borda do iframe</t>
+  </si>
+  <si>
+    <t>Colocar um texto com link caso o iframe não funcione</t>
+  </si>
+  <si>
+    <t>Obs: as configurações no CSS se obrepõem as configurações inline.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 03:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conteúdo local no iframe</t>
     </r>
   </si>
 </sst>
@@ -243,6 +274,231 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>491610</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22364103-E537-484F-854B-C9703D74671A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="4619110" cy="4818345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB9D0C1-BC98-C84D-B3BC-A09F894D8025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="9563100"/>
+          <a:ext cx="4165600" cy="5131536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482772</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA45964-7F7F-054A-B8E8-BB8FC8247E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="14973301"/>
+          <a:ext cx="4521372" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C17ACF-D3EB-5044-A3DD-BD89E5B0DB5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368800" y="9508554"/>
+          <a:ext cx="3505200" cy="4973803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>186376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>113726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40076CCA-6805-2841-B784-1E1DA13716F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="9724076"/>
+          <a:ext cx="6159500" cy="4397750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -547,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,6 +834,30 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7501A75E-112F-9A4C-9FEA-E55A5E22F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CD2AB-2090-8A43-AD85-060EE14B781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="460" windowWidth="19040" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -111,6 +111,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Conteúdo local no iframe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 04:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navegação no iframe</t>
     </r>
   </si>
 </sst>
@@ -803,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,6 +880,15 @@
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
     </row>
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CD2AB-2090-8A43-AD85-060EE14B781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB80221-F5A5-5E42-AF64-00C518B265E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="460" windowWidth="19040" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -135,12 +135,66 @@
       <t xml:space="preserve"> Navegação no iframe</t>
     </r>
   </si>
+  <si>
+    <t>ex024-iframe002</t>
+  </si>
+  <si>
+    <t>ex024-iframe003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">colocar &lt;iframe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>name = "frame"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&lt;/frame&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>colocar no link: &lt;a href="'Link da pag. Que quero'"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t xml:space="preserve"> target = "frame"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Primeira página&lt;/a&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +213,20 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Corpo)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Corpo)"/>
     </font>
@@ -189,10 +257,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,6 +598,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>3009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAA8759-1536-C64D-A9E6-3E287CC8223F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76199" y="15989300"/>
+          <a:ext cx="3835401" cy="726909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490728</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F787E87-0FF7-0B48-8601-27162444EDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="16002000"/>
+          <a:ext cx="4503928" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>780381</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BCF451-C436-D44C-BC4A-3C06E9C1DD9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="16129000"/>
+          <a:ext cx="3561681" cy="5308600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8412</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>183613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67173</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>55694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F2427B-A269-A040-B19D-79A9D19AE828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12402388" y="15744938"/>
+          <a:ext cx="4190086" cy="6237383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>703855</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>153012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213605</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>25424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDDA8C2-816A-4340-BC5A-070EF22FF98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8966506" y="22278554"/>
+          <a:ext cx="7772400" cy="4845304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -825,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,16 +1173,46 @@
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B95:E96"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB80221-F5A5-5E42-AF64-00C518B265E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FC76B-1271-EA48-AF84-3C86CDD4871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="460" windowWidth="19040" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1FC76B-1271-EA48-AF84-3C86CDD4871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61AA60-79A0-C74D-9D70-B50A61729557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="460" windowWidth="19040" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -187,6 +187,28 @@
         <scheme val="minor"/>
       </rPr>
       <t>&gt;Primeira página&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 05:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Conteúdo no iframe por código</t>
     </r>
   </si>
 </sst>
@@ -294,7 +316,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>301893</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88482</xdr:rowOff>
     </xdr:to>
@@ -338,7 +360,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123773</xdr:rowOff>
     </xdr:to>
@@ -382,7 +404,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>491610</xdr:colOff>
+      <xdr:colOff>399802</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>68545</xdr:rowOff>
     </xdr:to>
@@ -426,7 +448,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>35192</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>38836</xdr:rowOff>
     </xdr:to>
@@ -470,7 +492,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>482772</xdr:colOff>
+      <xdr:colOff>390964</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
@@ -514,7 +536,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>444501</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>67857</xdr:rowOff>
     </xdr:to>
@@ -607,7 +629,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>517793</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>3009</xdr:rowOff>
     </xdr:to>
@@ -651,7 +673,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>490728</xdr:colOff>
+      <xdr:colOff>490729</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1118,13 +1140,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="83" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:E96"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1208,6 +1233,19 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61AA60-79A0-C74D-9D70-B50A61729557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9FD9FA-D29E-6044-A795-9D025A0B40CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="460" windowWidth="19040" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
+    <workbookView xWindow="11740" yWindow="460" windowWidth="23420" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -209,6 +209,53 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Conteúdo no iframe por código</t>
+    </r>
+  </si>
+  <si>
+    <t>Como colocar conteúdo na pag. Inicial do iframe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 06:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Inconvenientes do iframe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 07:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In</t>
     </r>
   </si>
 </sst>
@@ -840,6 +887,153 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>71611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76245</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA9357F-E026-C043-91A4-483AD1985CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="28633911"/>
+          <a:ext cx="5029245" cy="8030990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246350</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>107108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>578692</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>26362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA752159-2B3E-BA48-B88B-253F182BC034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5288250" y="28669408"/>
+          <a:ext cx="7761842" cy="5202454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Chave Direita 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3212D8C2-8AA0-1E49-A3A2-5FEE7210DE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="34315400"/>
+          <a:ext cx="190500" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1140,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1428,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,10 +1436,29 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9FD9FA-D29E-6044-A795-9D025A0B40CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F3A4BF-BDD3-3C4E-AFC9-1209974836FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11740" yWindow="460" windowWidth="23420" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -255,15 +255,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> In</t>
+      <t xml:space="preserve"> Tornando iframes mais seguros</t>
     </r>
+  </si>
+  <si>
+    <t>ex024/paginas-extras/pag004</t>
+  </si>
+  <si>
+    <t>ex024/iframe004</t>
+  </si>
+  <si>
+    <t>ex024/paginas-extras/pag005</t>
+  </si>
+  <si>
+    <t>ex024/iframe005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 08:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dicas para iframes melhores</t>
+    </r>
+  </si>
+  <si>
+    <t>Colocar videos do vímeo</t>
+  </si>
+  <si>
+    <t>Colocar videos do google maps</t>
+  </si>
+  <si>
+    <t>Colocar apresentações do GoogleDocs:</t>
+  </si>
+  <si>
+    <t>Colocar mapas do Waze:</t>
+  </si>
+  <si>
+    <t>Ir em compartilhar e só copiar o código incorporado no programa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +348,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Corpo)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -326,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -334,6 +391,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +782,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>490729</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,7 +826,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>780381</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1032,6 +1092,549 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>153757</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>24721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>509357</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>69637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F309AFE9-9B06-9E4A-A8DD-4EF60158F616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="153757" y="38163500"/>
+          <a:ext cx="3739035" cy="2080793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>212508</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>150753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>135726</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>80882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2A10CF-9760-9443-B672-0341D3C81421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="212508" y="40325409"/>
+          <a:ext cx="2395355" cy="744481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652937</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>308117</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>62822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB11277A-9E77-0542-9D31-8C93B074CE62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4039604" y="37655415"/>
+          <a:ext cx="2955745" cy="2236616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>694341</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>197800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>318576</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>182727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E64E06-8EC9-D440-85F1-22A7DC36AC7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4081008" y="40027009"/>
+          <a:ext cx="2924800" cy="1793063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635120</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>64628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293738</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>39255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DB8468-1CBA-7D42-AE45-BDB9591D7F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7357653" y="38130761"/>
+          <a:ext cx="2977552" cy="2006627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102878</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>142679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82884</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>14623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3419A39E-3916-9F46-AE3A-79F02677F5B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7655145" y="40240812"/>
+          <a:ext cx="809739" cy="684744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26170</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>120539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313746</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF39BED3-3EBB-E34A-8061-EE7F68EB657C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10897370" y="37983472"/>
+          <a:ext cx="3606509" cy="2554927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48491</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>105448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>744701</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D5206C-5838-4B47-9FB7-03330A51A5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10919691" y="40609981"/>
+          <a:ext cx="3185410" cy="1994285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66628</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>153362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88400</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>170899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74580BE-C929-454B-9DF0-BC497D547FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66628" y="41934209"/>
+          <a:ext cx="7469569" cy="7185504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459862</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>37096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>702102</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>67750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649C61F4-4EE0-B943-A9A3-E0AB6D61113F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7971777" y="43541351"/>
+          <a:ext cx="5187134" cy="3678527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208695</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>39398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>229861</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>79917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA69C453-21B4-F843-A3B4-BA0134D8EF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7720610" y="47191526"/>
+          <a:ext cx="5790208" cy="10173497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285893</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>142451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>675361</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>98303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7D4D4B-9161-B044-BD14-8CE115643AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13566850" y="44457345"/>
+          <a:ext cx="6158511" cy="4414362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1334,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,7 +2047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -1452,17 +2055,80 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B184" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B95:E96"/>
+    <mergeCell ref="F210:I213"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Anotações/Modulo 04/Aulas Modulo 04.xlsx
+++ b/Anotações/Modulo 04/Aulas Modulo 04.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F3A4BF-BDD3-3C4E-AFC9-1209974836FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE92CE-22A2-DB4E-9770-0763F3601138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="460" windowWidth="23420" windowHeight="20180" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
+    <workbookView xWindow="13240" yWindow="460" windowWidth="23420" windowHeight="20180" activeTab="1" xr2:uid="{72FF00E0-3B42-3441-B23F-03641AEC5516}"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="1" r:id="rId1"/>
+    <sheet name="23" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>iframe coloca uma janela com o site dentro dele.</t>
   </si>
@@ -306,6 +307,50 @@
   </si>
   <si>
     <t>Ir em compartilhar e só copiar o código incorporado no programa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 01:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Criando um projeto do zero</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 02:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vamos começar o projeto</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1939,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4960933C-5BD5-864E-AF52-11E3B47E73F7}">
   <dimension ref="A1:N213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2133,4 +2178,35 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89926BD8-B335-BE41-8FFC-17C57A43008D}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>